--- a/Cas9Calculator.xlsx
+++ b/Cas9Calculator.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7932"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7932" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="German" sheetId="1" r:id="rId1"/>
+    <sheet name="English" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t xml:space="preserve">Konzentration DNA </t>
   </si>
@@ -102,6 +103,57 @@
   </si>
   <si>
     <t>DNA-Target</t>
+  </si>
+  <si>
+    <t>DNA volume</t>
+  </si>
+  <si>
+    <t>DNA length</t>
+  </si>
+  <si>
+    <t>sgRNA length</t>
+  </si>
+  <si>
+    <t>sgRNA concentration</t>
+  </si>
+  <si>
+    <t>Cas9 concentration</t>
+  </si>
+  <si>
+    <t>DNA concentration</t>
+  </si>
+  <si>
+    <t>volume per reaction</t>
+  </si>
+  <si>
+    <t>nucleasefree water</t>
+  </si>
+  <si>
+    <t>Cas9</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>DNA mass per volume</t>
+  </si>
+  <si>
+    <t>Amount of DNA in the volume used</t>
+  </si>
+  <si>
+    <t>Volume Cas9</t>
+  </si>
+  <si>
+    <t>amount of Cas9  needed for cleavage</t>
+  </si>
+  <si>
+    <t>amount of sgRNA required for cleavage</t>
+  </si>
+  <si>
+    <t>required mass sgRNA</t>
+  </si>
+  <si>
+    <t>Volume sgRNA</t>
   </si>
 </sst>
 </file>
@@ -530,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +596,7 @@
     <col min="5" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -565,7 +617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -579,7 +631,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -600,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="3"/>
@@ -608,7 +660,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="3"/>
@@ -616,12 +668,12 @@
       <c r="E5" s="12"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -636,16 +688,8 @@
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="13">
-        <f>ROUND(E3*20,2)</f>
-        <v>4</v>
-      </c>
-      <c r="H6" s="13">
-        <f>ROUND(E3*30,2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="3"/>
@@ -654,21 +698,13 @@
       </c>
       <c r="E7" s="13">
         <f>ROUND(E6/B6,2)</f>
-        <v>2</v>
+        <v>8.33</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="13">
-        <f>ROUND(G6/B6,2)</f>
-        <v>4</v>
-      </c>
-      <c r="H7" s="13">
-        <f>ROUND(H6/B6,2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="12"/>
       <c r="C8" s="3"/>
@@ -676,7 +712,7 @@
       <c r="E8" s="12"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="3"/>
@@ -684,7 +720,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -704,16 +740,8 @@
       <c r="F10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="13">
-        <f>ROUND(E3*20,2)</f>
-        <v>4</v>
-      </c>
-      <c r="H10" s="13">
-        <f>ROUND(E3*30,2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
@@ -733,16 +761,8 @@
       <c r="F11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="13">
-        <f>ROUND(((G10*10^(-12))*((B11*321.47)+18.02))/(10^(-9)),2)</f>
-        <v>129.94999999999999</v>
-      </c>
-      <c r="H11" s="13">
-        <f>ROUND(((H10*10^(-12))*((B11*321.47)+18.02))/(10^(-9)),2)</f>
-        <v>194.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -756,16 +776,8 @@
       <c r="F12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="18">
-        <f>ROUND(G11/B10,1)</f>
-        <v>3.2</v>
-      </c>
-      <c r="H12" s="18">
-        <f>ROUND(H11/B10,1)</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -775,34 +787,20 @@
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="1">
-        <v>30</v>
-      </c>
-      <c r="H16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1">
         <f>B22-(B19+B20+B21)</f>
-        <v>20.399999999999999</v>
+        <v>14.07</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="1">
-        <f>G22-(G19+G20+G21)</f>
-        <v>16.8</v>
-      </c>
-      <c r="H18" s="1">
-        <f>H22-(H19+H20+H21)</f>
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -813,16 +811,8 @@
       <c r="C19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="1">
-        <f>G16/10</f>
-        <v>3</v>
-      </c>
-      <c r="H19" s="1">
-        <f>H16/10</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -833,36 +823,20 @@
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="1">
-        <f>G12</f>
-        <v>3.2</v>
-      </c>
-      <c r="H20" s="1">
-        <f>H12</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2">
         <f>E7</f>
-        <v>2</v>
+        <v>8.33</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="2">
-        <f>G7</f>
-        <v>4</v>
-      </c>
-      <c r="H21" s="2">
-        <f>H7</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -873,16 +847,8 @@
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="1">
-        <f>G16-G24</f>
-        <v>27</v>
-      </c>
-      <c r="H22" s="1">
-        <f>H16-H24</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -893,16 +859,8 @@
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="2">
-        <f>B2</f>
-        <v>3</v>
-      </c>
-      <c r="H24" s="2">
-        <f>B2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -912,16 +870,369 @@
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G25" s="1">
-        <v>30</v>
-      </c>
-      <c r="H25" s="1">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5">
+        <v>88.8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8">
+        <f>B1*B2</f>
+        <v>266.39999999999998</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2112</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13">
+        <f>ROUND(((E1*(10^(-9)))/((B3*617.96)+36.04))/(10^(-12)),2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="13">
+        <f>ROUND(E3*10,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="13">
+        <f>ROUND(E6/B6,2)</f>
+        <v>8.33</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13">
+        <f>ROUND(E3*10,2)</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="11">
+        <v>101</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="13">
+        <f>ROUND(((E10*10^(-12))*((B11*321.47)+18.02))/(10^(-9)),2)</f>
+        <v>64.97</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="18">
+        <f>ROUND(E11/B10,1)</f>
+        <v>1.6</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B22-(B19+B20+B21)</f>
+        <v>14.07</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1">
+        <f>B16/10</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <f>E12</f>
+        <v>1.6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2">
+        <f>E7</f>
+        <v>8.33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <f>B16-B24</f>
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B2</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1">
+        <f>B18+B19+B20+B21+B24</f>
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>